--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2F62CCEC-FCA7-4AFD-8FD6-D525AE404605}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AF00B835-7B31-48C3-BF6D-575FC486F16A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>qqq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbbb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -348,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -361,6 +365,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AF00B835-7B31-48C3-BF6D-575FC486F16A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{386D1F9B-E919-4C01-A665-F08B76F281A8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>qqq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bbbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -352,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -370,6 +374,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
